--- a/uploads/catalog.xlsx
+++ b/uploads/catalog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kamil\PythonProject\diplom\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{909251A8-E4B4-404E-928F-9FE35F3BBB4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53577ADC-C2F9-4B13-A0DE-B1F34D055E89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Название товара</t>
   </si>
@@ -48,49 +48,55 @@
     <t>Email для связи</t>
   </si>
   <si>
-    <t>ООО «Мир товаров»</t>
-  </si>
-  <si>
     <t>+7 999 111-22-33</t>
   </si>
   <si>
     <t>example@mail.ru</t>
   </si>
   <si>
-    <t>electro</t>
-  </si>
-  <si>
-    <t>mas</t>
-  </si>
-  <si>
-    <t>sus</t>
-  </si>
-  <si>
     <t>Артикул</t>
   </si>
   <si>
-    <t>Кондиционер LG1</t>
-  </si>
-  <si>
-    <t>Кондиционер LG2</t>
-  </si>
-  <si>
-    <t>Кондиционер LG3</t>
-  </si>
-  <si>
-    <t>Кондиционер LG4</t>
-  </si>
-  <si>
-    <t>фыв</t>
-  </si>
-  <si>
     <t>Ссылка на покупку</t>
   </si>
   <si>
-    <t>https://www.wildberries.ru/</t>
-  </si>
-  <si>
     <t>https://www.wildberries.ru/catalog/217503312/detail.aspx</t>
+  </si>
+  <si>
+    <t>Мой магазин</t>
+  </si>
+  <si>
+    <t>SOUL STORY</t>
+  </si>
+  <si>
+    <t>Кондиционер</t>
+  </si>
+  <si>
+    <t>LG</t>
+  </si>
+  <si>
+    <t>https://www.wildberries.ru/catalog/402431932/detail.aspx</t>
+  </si>
+  <si>
+    <t>Роза в колбе с подсветкой</t>
+  </si>
+  <si>
+    <t>https://www.wildberries.ru/catalog/235745236/detail.aspx</t>
+  </si>
+  <si>
+    <t>Classmark</t>
+  </si>
+  <si>
+    <t>https://www.wildberries.ru/catalog/160345597/detail.aspx</t>
+  </si>
+  <si>
+    <t>Весы напольные</t>
+  </si>
+  <si>
+    <t>Xiaomi</t>
+  </si>
+  <si>
+    <t>Колье на шею</t>
   </si>
 </sst>
 </file>
@@ -422,7 +428,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -432,7 +438,7 @@
     <col min="3" max="3" width="20.88671875" customWidth="1"/>
     <col min="4" max="4" width="25.6640625" customWidth="1"/>
     <col min="5" max="5" width="21.44140625" customWidth="1"/>
-    <col min="9" max="9" width="25.5546875" customWidth="1"/>
+    <col min="9" max="9" width="49.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -458,35 +464,35 @@
         <v>3</v>
       </c>
       <c r="H1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D3" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>36000</v>
+        <v>550</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G3">
-        <v>125</v>
+        <v>12</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -497,53 +503,53 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4">
+        <v>1200</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4">
         <v>15</v>
-      </c>
-      <c r="E4">
-        <v>37000</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4">
-        <v>167</v>
       </c>
       <c r="H4">
         <v>2</v>
       </c>
-      <c r="I4" t="s">
-        <v>20</v>
+      <c r="I4" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E5">
-        <v>38000</v>
+        <v>52000</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G5">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="H5">
         <v>3</v>
       </c>
-      <c r="I5" t="s">
-        <v>20</v>
+      <c r="I5" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D6" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E6">
-        <v>15000</v>
+        <v>150</v>
       </c>
       <c r="F6" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G6">
         <v>7</v>
@@ -552,13 +558,16 @@
         <v>4</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="I3" r:id="rId1" xr:uid="{18263957-7BA4-43D4-B19D-3AB5753E4634}"/>
     <hyperlink ref="I6" r:id="rId2" xr:uid="{9FDE3C0F-6D25-4F0D-8551-8EA7DB692B3F}"/>
+    <hyperlink ref="I5" r:id="rId3" xr:uid="{D20B8F1D-1F49-40B7-8E3E-C4A375E9270E}"/>
+    <hyperlink ref="I4" r:id="rId4" xr:uid="{D7BC99F5-311A-494F-9C69-25918A269849}"/>
+    <hyperlink ref="C2" r:id="rId5" xr:uid="{EC11A5F8-9A1B-4531-B103-5DEFD762C8FF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
